--- a/MSD Results/msd_100_force.xlsx
+++ b/MSD Results/msd_100_force.xlsx
@@ -427,7 +427,7 @@
         <v>0.009674836071919213</v>
       </c>
       <c r="C4">
-        <v>0.008801018170087365</v>
+        <v>0.008809012207788625</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -438,7 +438,7 @@
         <v>0.02141595285011544</v>
       </c>
       <c r="C5">
-        <v>0.01754622143797905</v>
+        <v>0.01759017443148224</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -449,7 +449,7 @@
         <v>0.03746150615596378</v>
       </c>
       <c r="C6">
-        <v>0.02776081130379013</v>
+        <v>0.02784656519140422</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -460,7 +460,7 @@
         <v>0.05760156614280998</v>
       </c>
       <c r="C7">
-        <v>0.03873223391457914</v>
+        <v>0.03882028269259892</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -471,7 +471,7 @@
         <v>0.08163644136343606</v>
       </c>
       <c r="C8">
-        <v>0.0499104411325394</v>
+        <v>0.05004089581543121</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -482,7 +482,7 @@
         <v>0.1093761794374268</v>
       </c>
       <c r="C9">
-        <v>0.0608036673579468</v>
+        <v>0.06109155193673448</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -493,7 +493,7 @@
         <v>0.1406400920712789</v>
       </c>
       <c r="C10">
-        <v>0.07125296660456815</v>
+        <v>0.07178343673715928</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -504,7 +504,7 @@
         <v>0.1752563032435468</v>
       </c>
       <c r="C11">
-        <v>0.08118546753109526</v>
+        <v>0.08204914977913449</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -515,7 +515,7 @@
         <v>0.2130613194252668</v>
       </c>
       <c r="C12">
-        <v>0.09055604448531325</v>
+        <v>0.09157491171251486</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -526,7 +526,7 @@
         <v>0.2538996207609734</v>
       </c>
       <c r="C13">
-        <v>0.09889846857691882</v>
+        <v>0.1002463794129042</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -537,7 +537,7 @@
         <v>0.2976232721880532</v>
       </c>
       <c r="C14">
-        <v>0.1068375921720325</v>
+        <v>0.1079444764819587</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -548,7 +548,7 @@
         <v>0.3440915535220324</v>
       </c>
       <c r="C15">
-        <v>0.114097002436337</v>
+        <v>0.1150244568895795</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -559,7 +559,7 @@
         <v>0.3931706075828192</v>
       </c>
       <c r="C16">
-        <v>0.1205637829675572</v>
+        <v>0.1213265735306536</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -570,7 +570,7 @@
         <v>0.4447331054820296</v>
       </c>
       <c r="C17">
-        <v>0.1264292785148391</v>
+        <v>0.1269849894059218</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -581,7 +581,7 @@
         <v>0.4986579282344432</v>
       </c>
       <c r="C18">
-        <v>0.1316932122710726</v>
+        <v>0.1319650426453877</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -592,7 +592,7 @@
         <v>0.5548298638974534</v>
       </c>
       <c r="C19">
-        <v>0.1364421725774926</v>
+        <v>0.136491697622017</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -603,7 +603,7 @@
         <v>0.6131393194811983</v>
       </c>
       <c r="C20">
-        <v>0.1405269105139337</v>
+        <v>0.1404811395251661</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -614,7 +614,7 @@
         <v>0.6734820469090024</v>
       </c>
       <c r="C21">
-        <v>0.143923971016475</v>
+        <v>0.1442266793828747</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -625,7 +625,7 @@
         <v>0.7357588823428847</v>
       </c>
       <c r="C22">
-        <v>0.1472536869422317</v>
+        <v>0.1472296179860261</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -636,7 +636,7 @@
         <v>0.7998754982223106</v>
       </c>
       <c r="C23">
-        <v>0.1497158063712331</v>
+        <v>0.1498809605798222</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -647,7 +647,7 @@
         <v>0.8657421673961592</v>
       </c>
       <c r="C24">
-        <v>0.1518113513604318</v>
+        <v>0.1522669819260463</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -658,7 +658,7 @@
         <v>0.9332735387581064</v>
       </c>
       <c r="C25">
-        <v>0.1539728754318475</v>
+        <v>0.1547112637022742</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -669,7 +669,7 @@
         <v>1.002388423824404</v>
       </c>
       <c r="C26">
-        <v>0.1562408061206572</v>
+        <v>0.1567760427887482</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -680,7 +680,7 @@
         <v>1.07300959372038</v>
       </c>
       <c r="C27">
-        <v>0.158153417028842</v>
+        <v>0.1581135014039449</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -691,7 +691,7 @@
         <v>1.145063586068025</v>
       </c>
       <c r="C28">
-        <v>0.1598183299993979</v>
+        <v>0.1594583511018383</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -702,7 +702,7 @@
         <v>1.218480521291783</v>
       </c>
       <c r="C29">
-        <v>0.1614198098108424</v>
+        <v>0.1608122144203463</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -713,7 +713,7 @@
         <v>1.293193927883213</v>
       </c>
       <c r="C30">
-        <v>0.1628378343804288</v>
+        <v>0.1622262672411764</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -724,7 +724,7 @@
         <v>1.369140576187596</v>
       </c>
       <c r="C31">
-        <v>0.1637154616138449</v>
+        <v>0.1636994430694663</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -735,7 +735,7 @@
         <v>1.44626032029686</v>
       </c>
       <c r="C32">
-        <v>0.1645584119104662</v>
+        <v>0.1649321735690054</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -746,7 +746,7 @@
         <v>1.524495947653486</v>
       </c>
       <c r="C33">
-        <v>0.1652854990679617</v>
+        <v>0.1657530609762951</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -757,7 +757,7 @@
         <v>1.603793035989311</v>
       </c>
       <c r="C34">
-        <v>0.1657723056479332</v>
+        <v>0.1662542383631714</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -768,7 +768,7 @@
         <v>1.684099817241508</v>
       </c>
       <c r="C35">
-        <v>0.1662088945506724</v>
+        <v>0.1667493765225533</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -779,7 +779,7 @@
         <v>1.76536704810547</v>
       </c>
       <c r="C36">
-        <v>0.1667439759940592</v>
+        <v>0.1670960714018793</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -790,7 +790,7 @@
         <v>1.84754788690089</v>
       </c>
       <c r="C37">
-        <v>0.166900592167892</v>
+        <v>0.1674063649889204</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -801,7 +801,7 @@
         <v>1.930597776443173</v>
       </c>
       <c r="C38">
-        <v>0.167140792208261</v>
+        <v>0.1674032371269961</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -812,7 +812,7 @@
         <v>2.014474332627255</v>
       </c>
       <c r="C39">
-        <v>0.1673063649065671</v>
+        <v>0.167601285635314</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -823,7 +823,7 @@
         <v>2.09913723844527</v>
       </c>
       <c r="C40">
-        <v>0.1678198926369785</v>
+        <v>0.1674350405862268</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -834,7 +834,7 @@
         <v>2.184548143173028</v>
       </c>
       <c r="C41">
-        <v>0.1682834407534466</v>
+        <v>0.1674533467997746</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -845,7 +845,7 @@
         <v>2.270670566473226</v>
       </c>
       <c r="C42">
-        <v>0.1684984011326939</v>
+        <v>0.1674372827954905</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -856,7 +856,7 @@
         <v>2.357469807175609</v>
       </c>
       <c r="C43">
-        <v>0.1686211226934332</v>
+        <v>0.1675005695996498</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -867,7 +867,7 @@
         <v>2.444912856505964</v>
       </c>
       <c r="C44">
-        <v>0.1687134875557642</v>
+        <v>0.1674290275643985</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -878,7 +878,7 @@
         <v>2.532968315546993</v>
       </c>
       <c r="C45">
-        <v>0.1685033589204915</v>
+        <v>0.167439604008611</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -889,7 +889,7 @@
         <v>2.621606316724668</v>
       </c>
       <c r="C46">
-        <v>0.1683488502826225</v>
+        <v>0.1672243052533068</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -900,7 +900,7 @@
         <v>2.710798449123729</v>
       </c>
       <c r="C47">
-        <v>0.1682611026350793</v>
+        <v>0.1672116272835082</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -911,7 +911,7 @@
         <v>2.800517687445608</v>
       </c>
       <c r="C48">
-        <v>0.1682705531194277</v>
+        <v>0.1674564203009372</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -922,7 +922,7 @@
         <v>2.8907383244311</v>
       </c>
       <c r="C49">
-        <v>0.1683085350870634</v>
+        <v>0.1676665866041941</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -933,7 +933,7 @@
         <v>2.981435906578826</v>
       </c>
       <c r="C50">
-        <v>0.1683674401388322</v>
+        <v>0.1682274945815115</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -944,7 +944,7 @@
         <v>3.072587172998741</v>
       </c>
       <c r="C51">
-        <v>0.1681665239933582</v>
+        <v>0.1685635023717026</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -955,7 +955,7 @@
         <v>3.164169997247797</v>
       </c>
       <c r="C52">
-        <v>0.1677087254046256</v>
+        <v>0.1689278706006957</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -966,7 +966,7 @@
         <v>3.256163332002306</v>
       </c>
       <c r="C53">
-        <v>0.1673979072738287</v>
+        <v>0.1690793431828927</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -977,7 +977,7 @@
         <v>3.348547156428668</v>
       </c>
       <c r="C54">
-        <v>0.1669663045700519</v>
+        <v>0.1692595562330816</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -988,7 +988,7 @@
         <v>3.44130242612086</v>
       </c>
       <c r="C55">
-        <v>0.1668179592253208</v>
+        <v>0.1692789588932585</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -999,7 +999,7 @@
         <v>3.5344110254795</v>
       </c>
       <c r="C56">
-        <v>0.1669836903306488</v>
+        <v>0.1693925049146078</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1010,7 +1010,7 @@
         <v>3.627855722413415</v>
       </c>
       <c r="C57">
-        <v>0.1674031699770892</v>
+        <v>0.1695034596356151</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1021,7 +1021,7 @@
         <v>3.721620125250436</v>
       </c>
       <c r="C58">
-        <v>0.1676606731403679</v>
+        <v>0.169710233191657</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1032,7 +1032,7 @@
         <v>3.815688641749677</v>
       </c>
       <c r="C59">
-        <v>0.1681144409493529</v>
+        <v>0.1697883570580798</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1043,7 +1043,7 @@
         <v>3.910046440112815</v>
       </c>
       <c r="C60">
-        <v>0.1684063420740126</v>
+        <v>0.1699401586835242</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1054,7 +1054,7 @@
         <v>4.004679411896865</v>
       </c>
       <c r="C61">
-        <v>0.1683483199803438</v>
+        <v>0.1700284415207818</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1065,7 +1065,7 @@
         <v>4.099574136735728</v>
       </c>
       <c r="C62">
-        <v>0.1685344987478214</v>
+        <v>0.1698777830030407</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1076,7 +1076,7 @@
         <v>4.194717848782282</v>
       </c>
       <c r="C63">
-        <v>0.168682139641334</v>
+        <v>0.1699822032387085</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1087,7 +1087,7 @@
         <v>4.290098404787115</v>
       </c>
       <c r="C64">
-        <v>0.1690207034473652</v>
+        <v>0.1698866622110692</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1098,7 +1098,7 @@
         <v>4.385704253734081</v>
       </c>
       <c r="C65">
-        <v>0.1693817213178858</v>
+        <v>0.1695824458112716</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1109,7 +1109,7 @@
         <v>4.481524407956733</v>
       </c>
       <c r="C66">
-        <v>0.1695256443286595</v>
+        <v>0.1691498746138884</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1120,7 +1120,7 @@
         <v>4.577548415663444</v>
       </c>
       <c r="C67">
-        <v>0.1696087308836651</v>
+        <v>0.1689055324038052</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1131,7 +1131,7 @@
         <v>4.67376633480248</v>
       </c>
       <c r="C68">
-        <v>0.1694729220342658</v>
+        <v>0.168752380935287</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1142,7 +1142,7 @@
         <v>4.77016870820169</v>
       </c>
       <c r="C69">
-        <v>0.1695101858963551</v>
+        <v>0.1687936827292013</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1153,7 +1153,7 @@
         <v>4.866746539920653</v>
       </c>
       <c r="C70">
-        <v>0.1697278345514265</v>
+        <v>0.1688697003548326</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1164,7 +1164,7 @@
         <v>4.963491272756136</v>
       </c>
       <c r="C71">
-        <v>0.1697590624842079</v>
+        <v>0.168704545543253</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1175,7 +1175,7 @@
         <v>5.060394766844637</v>
       </c>
       <c r="C72">
-        <v>0.1702366392441289</v>
+        <v>0.1684264149065877</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1186,7 +1186,7 @@
         <v>5.157449279308479</v>
       </c>
       <c r="C73">
-        <v>0.1704822734441065</v>
+        <v>0.1681870300921338</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1197,7 +1197,7 @@
         <v>5.254647444894585</v>
       </c>
       <c r="C74">
-        <v>0.1703536878692309</v>
+        <v>0.1678884801047755</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1208,7 +1208,7 @@
         <v>5.351982257557512</v>
       </c>
       <c r="C75">
-        <v>0.1700656988059273</v>
+        <v>0.167592440948506</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1219,7 +1219,7 @@
         <v>5.44944705294068</v>
       </c>
       <c r="C76">
-        <v>0.1698699007035506</v>
+        <v>0.1674983070974133</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1230,7 +1230,7 @@
         <v>5.547035491712018</v>
       </c>
       <c r="C77">
-        <v>0.169696493550707</v>
+        <v>0.1672936862344299</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1241,7 +1241,7 @@
         <v>5.644741543712332</v>
       </c>
       <c r="C78">
-        <v>0.1694713516147504</v>
+        <v>0.1674724999767365</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1252,7 +1252,7 @@
         <v>5.742559472876755</v>
       </c>
       <c r="C79">
-        <v>0.1693557546263409</v>
+        <v>0.1678632899730046</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1263,7 +1263,7 @@
         <v>5.84048382289161</v>
       </c>
       <c r="C80">
-        <v>0.1693297158107603</v>
+        <v>0.1679698949876646</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1274,7 +1274,7 @@
         <v>5.938509403550774</v>
       </c>
       <c r="C81">
-        <v>0.1690899780710646</v>
+        <v>0.1681558203177681</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1285,7 +1285,7 @@
         <v>6.036631277777468</v>
       </c>
       <c r="C82">
-        <v>0.1686930310792248</v>
+        <v>0.1681258595465266</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1296,7 +1296,7 @@
         <v>6.134844749278987</v>
       </c>
       <c r="C83">
-        <v>0.1685281245135347</v>
+        <v>0.1682070889227552</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1307,7 +1307,7 @@
         <v>6.233145350803523</v>
       </c>
       <c r="C84">
-        <v>0.1688071356146104</v>
+        <v>0.1686847066753357</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1318,7 +1318,7 @@
         <v>6.33152883296971</v>
       </c>
       <c r="C85">
-        <v>0.1689796699395874</v>
+        <v>0.1690685025728547</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1329,7 +1329,7 @@
         <v>6.429991153640955</v>
       </c>
       <c r="C86">
-        <v>0.16908419857976</v>
+        <v>0.1691339482107288</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1340,7 +1340,7 @@
         <v>6.528528467817999</v>
       </c>
       <c r="C87">
-        <v>0.1692207256715301</v>
+        <v>0.1695069477388601</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1351,7 +1351,7 @@
         <v>6.627137118024402</v>
       </c>
       <c r="C88">
-        <v>0.1695516944357315</v>
+        <v>0.1699632655252858</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1362,7 +1362,7 @@
         <v>6.72581362516096</v>
       </c>
       <c r="C89">
-        <v>0.1697780708341297</v>
+        <v>0.1703458165603292</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1373,7 +1373,7 @@
         <v>6.824554679806138</v>
       </c>
       <c r="C90">
-        <v>0.1697768474051998</v>
+        <v>0.1703366276303309</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1384,7 +1384,7 @@
         <v>6.923357133940792</v>
       </c>
       <c r="C91">
-        <v>0.1700019903678473</v>
+        <v>0.1704816618823129</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1395,7 +1395,7 @@
         <v>7.022217993076485</v>
       </c>
       <c r="C92">
-        <v>0.170069922729306</v>
+        <v>0.170094347799012</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1406,7 +1406,7 @@
         <v>7.121134408767706</v>
       </c>
       <c r="C93">
-        <v>0.1697025899407089</v>
+        <v>0.1698238340280135</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1417,7 +1417,7 @@
         <v>7.220103671489268</v>
       </c>
       <c r="C94">
-        <v>0.1693940077565801</v>
+        <v>0.169335068426943</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1428,7 +1428,7 @@
         <v>7.319123203861087</v>
       </c>
       <c r="C95">
-        <v>0.1693145118276879</v>
+        <v>0.1689581836692627</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1439,7 +1439,7 @@
         <v>7.418190554203392</v>
       </c>
       <c r="C96">
-        <v>0.168952623602706</v>
+        <v>0.1685775431363138</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1450,7 +1450,7 @@
         <v>7.517303390406241</v>
       </c>
       <c r="C97">
-        <v>0.1690950611121305</v>
+        <v>0.1683750324437936</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1461,7 +1461,7 @@
         <v>7.616459494098041</v>
       </c>
       <c r="C98">
-        <v>0.1692957030953314</v>
+        <v>0.1683596952469436</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1472,7 +1472,7 @@
         <v>7.715656755098452</v>
       </c>
       <c r="C99">
-        <v>0.1694514212692682</v>
+        <v>0.1683012358475795</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1483,7 +1483,7 @@
         <v>7.81489316614185</v>
       </c>
       <c r="C100">
-        <v>0.1695325784382009</v>
+        <v>0.1685186493386129</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1494,7 +1494,7 @@
         <v>7.914166817858105</v>
       </c>
       <c r="C101">
-        <v>0.1696023838374459</v>
+        <v>0.1689334078804183</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1505,7 +1505,7 @@
         <v>8.013475893998171</v>
       </c>
       <c r="C102">
-        <v>0.1696946869634529</v>
+        <v>0.169480979381151</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1516,7 +1516,7 @@
         <v>8.112818666892514</v>
       </c>
       <c r="C103">
-        <v>0.1695831549368494</v>
+        <v>0.1699914975611019</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1527,7 +1527,7 @@
         <v>8.212193493131032</v>
       </c>
       <c r="C104">
-        <v>0.1697671857332615</v>
+        <v>0.1702698619855787</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1538,7 +1538,7 @@
         <v>8.311598809453685</v>
       </c>
       <c r="C105">
-        <v>0.1698886594760065</v>
+        <v>0.1706239019065849</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1549,7 +1549,7 @@
         <v>8.411033128841522</v>
       </c>
       <c r="C106">
-        <v>0.1701862483685466</v>
+        <v>0.1710169693751971</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1560,7 +1560,7 @@
         <v>8.510495036798362</v>
       </c>
       <c r="C107">
-        <v>0.1704943112587955</v>
+        <v>0.1712675737990488</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1571,7 +1571,7 @@
         <v>8.609983187813821</v>
       </c>
       <c r="C108">
-        <v>0.1709097299253697</v>
+        <v>0.1715495473169745</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1582,7 +1582,7 @@
         <v>8.709496301998824</v>
       </c>
       <c r="C109">
-        <v>0.1715576059341702</v>
+        <v>0.1717884383327458</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1593,7 +1593,7 @@
         <v>8.809033161885226</v>
       </c>
       <c r="C110">
-        <v>0.1719312009135996</v>
+        <v>0.1719512916654365</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1604,7 +1604,7 @@
         <v>8.908592609381506</v>
       </c>
       <c r="C111">
-        <v>0.1721709285124211</v>
+        <v>0.171647821042981</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1615,7 +1615,7 @@
         <v>9.008173542876929</v>
       </c>
       <c r="C112">
-        <v>0.1725575255868734</v>
+        <v>0.1715317237458985</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1626,7 +1626,7 @@
         <v>9.107774914486953</v>
       </c>
       <c r="C113">
-        <v>0.1727759209301881</v>
+        <v>0.171490383050066</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1637,7 +1637,7 @@
         <v>9.207395727432967</v>
       </c>
       <c r="C114">
-        <v>0.1726137050930427</v>
+        <v>0.1714183901535937</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1648,7 +1648,7 @@
         <v>9.307035033549825</v>
       </c>
       <c r="C115">
-        <v>0.1722435106812571</v>
+        <v>0.1717121090846412</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1659,7 +1659,7 @@
         <v>9.406691930914944</v>
       </c>
       <c r="C116">
-        <v>0.1717801666866137</v>
+        <v>0.1719613062563797</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1670,7 +1670,7 @@
         <v>9.50636556159302</v>
       </c>
       <c r="C117">
-        <v>0.1712678903776967</v>
+        <v>0.1717740185722218</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1681,7 +1681,7 @@
         <v>9.606055109490754</v>
       </c>
       <c r="C118">
-        <v>0.1709025468735884</v>
+        <v>0.1717896849113656</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1692,7 +1692,7 @@
         <v>9.705759798316178</v>
       </c>
       <c r="C119">
-        <v>0.1708660244321346</v>
+        <v>0.1715325849421161</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1703,7 +1703,7 @@
         <v>9.805478889637538</v>
       </c>
       <c r="C120">
-        <v>0.1709386662171098</v>
+        <v>0.1711463787436169</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1714,7 +1714,7 @@
         <v>9.905211681036818</v>
       </c>
       <c r="C121">
-        <v>0.171001524110473</v>
+        <v>0.1706705198184142</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1725,7 +1725,7 @@
         <v>10.00495750435333</v>
       </c>
       <c r="C122">
-        <v>0.1708659590877043</v>
+        <v>0.1704545243898321</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1736,7 +1736,7 @@
         <v>10.10471572401298</v>
       </c>
       <c r="C123">
-        <v>0.1708370580298174</v>
+        <v>0.1703705524224427</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1747,7 +1747,7 @@
         <v>10.20448573543897</v>
       </c>
       <c r="C124">
-        <v>0.1705916625650876</v>
+        <v>0.1703705624938711</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1758,7 +1758,7 @@
         <v>10.30426696354008</v>
       </c>
       <c r="C125">
-        <v>0.1703704168143152</v>
+        <v>0.1701407404924619</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1769,7 +1769,7 @@
         <v>10.40405886127259</v>
       </c>
       <c r="C126">
-        <v>0.1705085091408488</v>
+        <v>0.1704565294790666</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1780,7 +1780,7 @@
         <v>10.50386090827246</v>
       </c>
       <c r="C127">
-        <v>0.1706849863706875</v>
+        <v>0.1704990280338993</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1791,7 +1791,7 @@
         <v>10.60367260955406</v>
       </c>
       <c r="C128">
-        <v>0.1708083606564425</v>
+        <v>0.1702118660566955</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1802,7 +1802,7 @@
         <v>10.70349349427252</v>
       </c>
       <c r="C129">
-        <v>0.1710403071107005</v>
+        <v>0.1702734571550703</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1813,7 +1813,7 @@
         <v>10.80332311454635</v>
       </c>
       <c r="C130">
-        <v>0.1714216120548957</v>
+        <v>0.1703654665214915</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1824,7 +1824,7 @@
         <v>10.90316104433747</v>
       </c>
       <c r="C131">
-        <v>0.1715731139250973</v>
+        <v>0.1700802990208058</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1835,7 +1835,7 @@
         <v>11.00300687838596</v>
       </c>
       <c r="C132">
-        <v>0.1714464859089602</v>
+        <v>0.1699508640494766</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1846,7 +1846,7 @@
         <v>11.10286023119662</v>
       </c>
       <c r="C133">
-        <v>0.1714962149697827</v>
+        <v>0.1700167564971654</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1857,7 +1857,7 @@
         <v>11.2027207360751</v>
       </c>
       <c r="C134">
-        <v>0.1717465360795061</v>
+        <v>0.170111198163746</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1868,7 +1868,7 @@
         <v>11.30258804421093</v>
       </c>
       <c r="C135">
-        <v>0.1718008390134153</v>
+        <v>0.1703859826776126</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1879,7 +1879,7 @@
         <v>11.40246182380535</v>
       </c>
       <c r="C136">
-        <v>0.17193240317116</v>
+        <v>0.1706254259204865</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1890,7 +1890,7 @@
         <v>11.50234175924158</v>
       </c>
       <c r="C137">
-        <v>0.1720998616021035</v>
+        <v>0.1707902116023217</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1901,7 +1901,7 @@
         <v>11.60222755029569</v>
       </c>
       <c r="C138">
-        <v>0.1722128151787093</v>
+        <v>0.1707859193055793</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1912,7 +1912,7 @@
         <v>11.70211891138582</v>
       </c>
       <c r="C139">
-        <v>0.1720795526495584</v>
+        <v>0.1707528433532657</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1923,7 +1923,7 @@
         <v>11.8020155708581</v>
       </c>
       <c r="C140">
-        <v>0.1721503380453145</v>
+        <v>0.1707898046681813</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1934,7 +1934,7 @@
         <v>11.90191727030739</v>
       </c>
       <c r="C141">
-        <v>0.1722320420262694</v>
+        <v>0.1707216645195272</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1945,7 +1945,7 @@
         <v>12.00182376393111</v>
       </c>
       <c r="C142">
-        <v>0.1722667590869834</v>
+        <v>0.1705293812349444</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1956,7 +1956,7 @@
         <v>12.10173481791461</v>
       </c>
       <c r="C143">
-        <v>0.1725286716580536</v>
+        <v>0.1702754313030491</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1967,7 +1967,7 @@
         <v>12.20165020984653</v>
       </c>
       <c r="C144">
-        <v>0.1727101359481999</v>
+        <v>0.1705191857662175</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1978,7 +1978,7 @@
         <v>12.30156972816262</v>
       </c>
       <c r="C145">
-        <v>0.1730045813253831</v>
+        <v>0.170657478817999</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1989,7 +1989,7 @@
         <v>12.40149317161675</v>
       </c>
       <c r="C146">
-        <v>0.1731558952836978</v>
+        <v>0.1709793595165471</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2000,7 +2000,7 @@
         <v>12.50142034877769</v>
       </c>
       <c r="C147">
-        <v>0.1733214710042753</v>
+        <v>0.1709669463791103</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2011,7 +2011,7 @@
         <v>12.60135107755039</v>
       </c>
       <c r="C148">
-        <v>0.173318142861572</v>
+        <v>0.1708504835175394</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2022,7 +2022,7 @@
         <v>12.70128518472071</v>
       </c>
       <c r="C149">
-        <v>0.1728980268256957</v>
+        <v>0.170549364234862</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2033,7 +2033,7 @@
         <v>12.80122250552226</v>
       </c>
       <c r="C150">
-        <v>0.172631520585455</v>
+        <v>0.1705231953891167</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2044,7 +2044,7 @@
         <v>12.90116288322439</v>
       </c>
       <c r="C151">
-        <v>0.171886845807619</v>
+        <v>0.1701497003415696</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2055,7 +2055,7 @@
         <v>13.0011061687403</v>
       </c>
       <c r="C152">
-        <v>0.1713373928666128</v>
+        <v>0.1698910457127539</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2066,7 +2066,7 @@
         <v>13.10105222025423</v>
       </c>
       <c r="C153">
-        <v>0.1707000462508512</v>
+        <v>0.1697927897304833</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2077,7 +2077,7 @@
         <v>13.20100090286688</v>
       </c>
       <c r="C154">
-        <v>0.1702784513822001</v>
+        <v>0.1699136100758963</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2088,7 +2088,7 @@
         <v>13.30095208825804</v>
       </c>
       <c r="C155">
-        <v>0.1700164435098785</v>
+        <v>0.1698387197869859</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2099,7 +2099,7 @@
         <v>13.40090565436577</v>
       </c>
       <c r="C156">
-        <v>0.1698621517854056</v>
+        <v>0.1700102545631947</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2110,7 +2110,7 @@
         <v>13.50086148508115</v>
       </c>
       <c r="C157">
-        <v>0.1699264049680362</v>
+        <v>0.1701356759161367</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2121,7 +2121,7 @@
         <v>13.60081946995796</v>
       </c>
       <c r="C158">
-        <v>0.1700149060762765</v>
+        <v>0.170155997615194</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2132,7 +2132,7 @@
         <v>13.70077950393651</v>
       </c>
       <c r="C159">
-        <v>0.1700401929169855</v>
+        <v>0.1702902448043615</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2143,7 +2143,7 @@
         <v>13.80074148708092</v>
       </c>
       <c r="C160">
-        <v>0.1700146447403227</v>
+        <v>0.1703877028749426</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2154,7 +2154,7 @@
         <v>13.90070532432926</v>
       </c>
       <c r="C161">
-        <v>0.1702029360360465</v>
+        <v>0.170771098267746</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2165,7 +2165,7 @@
         <v>14.0006709252558</v>
       </c>
       <c r="C162">
-        <v>0.1707479264764113</v>
+        <v>0.1712793290698493</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2176,7 +2176,7 @@
         <v>14.10063820384496</v>
       </c>
       <c r="C163">
-        <v>0.1707323768016058</v>
+        <v>0.1713525921103485</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2187,7 +2187,7 @@
         <v>14.20060707827616</v>
       </c>
       <c r="C164">
-        <v>0.1707149386495797</v>
+        <v>0.1715075165700662</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2198,7 +2198,7 @@
         <v>14.30057747071926</v>
       </c>
       <c r="C165">
-        <v>0.1704495798121912</v>
+        <v>0.1715637227745538</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2209,7 +2209,7 @@
         <v>14.40054930713995</v>
       </c>
       <c r="C166">
-        <v>0.1704442141915911</v>
+        <v>0.1713272176243407</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2220,7 +2220,7 @@
         <v>14.5005225171146</v>
       </c>
       <c r="C167">
-        <v>0.1702813178274414</v>
+        <v>0.1713510463348694</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2231,7 +2231,7 @@
         <v>14.60049703365422</v>
       </c>
       <c r="C168">
-        <v>0.1702243982112155</v>
+        <v>0.1711398271193078</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2242,7 +2242,7 @@
         <v>14.70047279303686</v>
       </c>
       <c r="C169">
-        <v>0.1702815735934464</v>
+        <v>0.1712873460176461</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2253,7 +2253,7 @@
         <v>14.80044973464836</v>
       </c>
       <c r="C170">
-        <v>0.1702919014474134</v>
+        <v>0.1714197040228147</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2264,7 +2264,7 @@
         <v>14.90042780083074</v>
       </c>
       <c r="C171">
-        <v>0.1702252274010169</v>
+        <v>0.1714933825318207</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2275,7 +2275,7 @@
         <v>15.00040693673802</v>
       </c>
       <c r="C172">
-        <v>0.1702581561420911</v>
+        <v>0.1717123403810565</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2286,7 +2286,7 @@
         <v>15.10038709019912</v>
       </c>
       <c r="C173">
-        <v>0.170372695168085</v>
+        <v>0.1717428124623225</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2297,7 +2297,7 @@
         <v>15.20036821158734</v>
       </c>
       <c r="C174">
-        <v>0.1700190083931768</v>
+        <v>0.171570630801475</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2308,7 +2308,7 @@
         <v>15.30035025369632</v>
       </c>
       <c r="C175">
-        <v>0.1696195258728787</v>
+        <v>0.1716373006374879</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2319,7 +2319,7 @@
         <v>15.40033317162198</v>
       </c>
       <c r="C176">
-        <v>0.1695629826390448</v>
+        <v>0.1716356892955499</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2330,7 +2330,7 @@
         <v>15.50031692265023</v>
       </c>
       <c r="C177">
-        <v>0.1693740779056176</v>
+        <v>0.1717406316064567</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2341,7 +2341,7 @@
         <v>15.60030146615019</v>
       </c>
       <c r="C178">
-        <v>0.169264263037307</v>
+        <v>0.1716337544614034</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2352,7 +2352,7 @@
         <v>15.70028676347255</v>
       </c>
       <c r="C179">
-        <v>0.16898534341436</v>
+        <v>0.1716898938665988</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2363,7 +2363,7 @@
         <v>15.80027277785296</v>
       </c>
       <c r="C180">
-        <v>0.1689914544154856</v>
+        <v>0.1718245491406862</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2374,7 +2374,7 @@
         <v>15.90025947432009</v>
       </c>
       <c r="C181">
-        <v>0.1689825824861736</v>
+        <v>0.1719099568879952</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2385,7 +2385,7 @@
         <v>16.00024681960817</v>
       </c>
       <c r="C182">
-        <v>0.1689835421776514</v>
+        <v>0.1718780415467076</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2396,7 +2396,7 @@
         <v>16.10023478207384</v>
       </c>
       <c r="C183">
-        <v>0.1688126178272057</v>
+        <v>0.1717542144984877</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2407,7 +2407,7 @@
         <v>16.20022333161698</v>
       </c>
       <c r="C184">
-        <v>0.1689543161019776</v>
+        <v>0.1717169048515074</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2418,7 +2418,7 @@
         <v>16.3002124396055</v>
       </c>
       <c r="C185">
-        <v>0.1693731945046534</v>
+        <v>0.1716884499994821</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2429,7 +2429,7 @@
         <v>16.40020207880368</v>
       </c>
       <c r="C186">
-        <v>0.1696523907580136</v>
+        <v>0.1718032839884687</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2440,7 +2440,7 @@
         <v>16.50019222330412</v>
       </c>
       <c r="C187">
-        <v>0.1701546094898048</v>
+        <v>0.1721013217441784</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2451,7 +2451,7 @@
         <v>16.60018284846296</v>
       </c>
       <c r="C188">
-        <v>0.1706120697776085</v>
+        <v>0.172425847546639</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2462,7 +2462,7 @@
         <v>16.70017393083819</v>
       </c>
       <c r="C189">
-        <v>0.1709349698241564</v>
+        <v>0.172610528972838</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2473,7 +2473,7 @@
         <v>16.80016544813111</v>
       </c>
       <c r="C190">
-        <v>0.1709587333643773</v>
+        <v>0.1725426886591826</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2484,7 +2484,7 @@
         <v>16.90015737913055</v>
       </c>
       <c r="C191">
-        <v>0.1708224687791751</v>
+        <v>0.1721256836293542</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2495,7 +2495,7 @@
         <v>17.00014970365978</v>
       </c>
       <c r="C192">
-        <v>0.1707131000344262</v>
+        <v>0.1717900711163795</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2506,7 +2506,7 @@
         <v>17.10014240252614</v>
       </c>
       <c r="C193">
-        <v>0.1709202430662339</v>
+        <v>0.1716648349723401</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2517,7 +2517,7 @@
         <v>17.20013545747299</v>
       </c>
       <c r="C194">
-        <v>0.1709200806670091</v>
+        <v>0.1715612328994686</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2528,7 +2528,7 @@
         <v>17.30012885113407</v>
       </c>
       <c r="C195">
-        <v>0.1707051245004715</v>
+        <v>0.1712300086182882</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2539,7 +2539,7 @@
         <v>17.40012256699011</v>
       </c>
       <c r="C196">
-        <v>0.1708850668924625</v>
+        <v>0.1709685039731009</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2550,7 +2550,7 @@
         <v>17.50011658932746</v>
       </c>
       <c r="C197">
-        <v>0.1708329695372556</v>
+        <v>0.1707214229502649</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2561,7 +2561,7 @@
         <v>17.60011090319886</v>
       </c>
       <c r="C198">
-        <v>0.1706663029216581</v>
+        <v>0.1702995751261816</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2572,7 +2572,7 @@
         <v>17.70010549438603</v>
       </c>
       <c r="C199">
-        <v>0.1707812283119373</v>
+        <v>0.1698420886519759</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2583,7 +2583,7 @@
         <v>17.80010034936411</v>
       </c>
       <c r="C200">
-        <v>0.1709056457059659</v>
+        <v>0.1696230472709662</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2594,7 +2594,7 @@
         <v>17.90009545526788</v>
       </c>
       <c r="C201">
-        <v>0.1712289804810659</v>
+        <v>0.1697145394225112</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2605,7 +2605,7 @@
         <v>18.00009079985952</v>
       </c>
       <c r="C202">
-        <v>0.1716692936651698</v>
+        <v>0.1696397477060877</v>
       </c>
     </row>
   </sheetData>
